--- a/data/trans_bre/P1412-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1412-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-0.9002580437934276</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.5959785988965203</v>
+        <v>-0.5959785988965205</v>
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>-1</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.4607242230997626</v>
+        <v>-0.4607242230997627</v>
       </c>
     </row>
     <row r="5">
@@ -643,15 +643,15 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.592391187143446</v>
+        <v>-2.757486351590466</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.781135230396957</v>
+        <v>-1.715423228017503</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.8588601944353964</v>
+        <v>-0.8703426591924188</v>
       </c>
     </row>
     <row r="6">
@@ -662,18 +662,18 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.63343404651568</v>
+        <v>2.034150862449315</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.2172032684567768</v>
+        <v>-0.2159944931789887</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4012155637406384</v>
+        <v>0.4201438003556129</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.8401546539818268</v>
+        <v>0.8488795784804577</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-0.4022570843185901</v>
+        <v>-0.40225708431859</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-1</v>
@@ -712,11 +712,11 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.418532003472183</v>
+        <v>-1.414771362302855</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>-1.267752989742429</v>
+        <v>-1.367077673933299</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.1368444928706856</v>
+        <v>0.1330889404970209</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
@@ -778,13 +778,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.304350106808782</v>
+        <v>-2.743307519339276</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.631671599560491</v>
+        <v>-1.532700514118985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.127962101240408</v>
+        <v>-2.227587155986059</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
@@ -800,18 +800,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3109304251319056</v>
+        <v>-0.3125190815150012</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1660861197111719</v>
+        <v>-0.165227412659346</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.01127276885281596</v>
+        <v>-0.043697025746044</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>1.252096998247348</v>
+        <v>0.9319248492937846</v>
       </c>
     </row>
     <row r="13">
@@ -832,7 +832,7 @@
         <v>-0.7281411712738318</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-0.4615013478887565</v>
+        <v>-0.4615013478887563</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.8756170183032985</v>
@@ -841,7 +841,7 @@
         <v>-0.7036068185420408</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4354107880212795</v>
+        <v>-0.4354107880212794</v>
       </c>
     </row>
     <row r="14">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.626121643867085</v>
+        <v>-1.634405726145386</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.500508279609493</v>
+        <v>-1.375316053306607</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.288471213170371</v>
+        <v>-1.285310225756793</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>-1</v>
@@ -867,7 +867,7 @@
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8001043233984906</v>
+        <v>-0.8061929170270151</v>
       </c>
     </row>
     <row r="15">
@@ -878,22 +878,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.3596237922054591</v>
+        <v>-0.310874825363618</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009295049197855522</v>
+        <v>0.009551326465480282</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1898495207290301</v>
+        <v>0.2016978202446049</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1333501042541405</v>
+        <v>0.4284091400454539</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6036284922939296</v>
+        <v>0.2630294687308411</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3722887427852561</v>
+        <v>0.4082985956553821</v>
       </c>
     </row>
     <row r="16">
@@ -914,7 +914,7 @@
         <v>-0.4425134049951466</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.05213174894681287</v>
+        <v>-0.05213174894681295</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.6865306661330302</v>
@@ -923,7 +923,7 @@
         <v>-0.367718214903589</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.07931086966146446</v>
+        <v>-0.0793108696614646</v>
       </c>
     </row>
     <row r="17">
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.75221159135266</v>
+        <v>-0.6034991130589836</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.637434115288283</v>
+        <v>-1.590113760687797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7887689438561782</v>
+        <v>-0.7959454361590244</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.5587696609181252</v>
+        <v>-0.4926456168470026</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.8623366305021928</v>
+        <v>-0.8577027946057525</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6721114178754456</v>
+        <v>-0.7358526131639209</v>
       </c>
     </row>
     <row r="18">
@@ -960,22 +960,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.707955050326717</v>
+        <v>1.786977510498016</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5090877154669468</v>
+        <v>0.7333508286765587</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5253569907140608</v>
+        <v>0.5152586593183015</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6.214217845737997</v>
+        <v>6.724345612166298</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9111577468660694</v>
+        <v>1.599145430656488</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.373605424869845</v>
+        <v>1.92853856606652</v>
       </c>
     </row>
     <row r="19">
@@ -996,7 +996,7 @@
         <v>1.01964427895936</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.6628666612582</v>
+        <v>0.6628666612581997</v>
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4901203290531118</v>
+        <v>0.5213955651969026</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5184327672650646</v>
+        <v>0.5158831994514551</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3125545471247137</v>
+        <v>0.3277189301213222</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.730163677759268</v>
+        <v>1.821647873448488</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.860897945119522</v>
+        <v>1.834256309864694</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.162657776277542</v>
+        <v>1.218361324041674</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3990055222656811</v>
+        <v>-0.3708895612398993</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6605835984464876</v>
+        <v>-0.6404832865619916</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7112592507565251</v>
+        <v>-0.764204514562116</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.4534892518239184</v>
+        <v>-0.4347019638755391</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6472749951029727</v>
+        <v>-0.6339612476417749</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6237437652416956</v>
+        <v>-0.6433367066360117</v>
       </c>
     </row>
     <row r="24">
@@ -1118,22 +1118,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3980475044478841</v>
+        <v>0.4322752026952204</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1809673907758926</v>
+        <v>0.1727551372569736</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.01470283971932892</v>
+        <v>-0.03975575735898709</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.8562075391280642</v>
+        <v>0.976276657077922</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3430840829922019</v>
+        <v>0.3689287693288715</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.008091599592788035</v>
+        <v>-0.050948121182663</v>
       </c>
     </row>
     <row r="25">
